--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1122">
   <si>
     <t>anchor score</t>
   </si>
@@ -391,613 +391,613 @@
     <t>delays</t>
   </si>
   <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>exploit</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>longer</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>stops</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>keeping</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>exploit</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>longer</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>stops</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>curb</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>keeping</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>better</t>
@@ -3748,7 +3748,7 @@
         <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K5">
         <v>0.8503937007874016</v>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K6">
         <v>0.847457627118644</v>
@@ -4077,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K8">
         <v>0.7784810126582279</v>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K10">
         <v>0.7112676056338029</v>
@@ -4227,28 +4227,28 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4277,16 +4277,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K12">
-        <v>0.6739130434782609</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>0.6263736263736264</v>
@@ -4377,28 +4377,28 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="K14">
-        <v>0.6085626911314985</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L14">
         <v>199</v>
       </c>
       <c r="M14">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K15">
         <v>0.5643044619422573</v>
@@ -4527,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K17">
         <v>0.5416666666666666</v>
@@ -4677,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K20">
         <v>0.4942528735632184</v>
@@ -4727,7 +4727,7 @@
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K21">
         <v>0.4736842105263158</v>
@@ -4827,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K23">
         <v>0.4430379746835443</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K24">
         <v>0.4375</v>
@@ -4927,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K25">
         <v>0.4285714285714285</v>
@@ -5027,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K27">
         <v>0.417910447761194</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K28">
         <v>0.4047619047619048</v>
@@ -5127,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K29">
         <v>0.4042553191489361</v>
@@ -5177,7 +5177,7 @@
         <v>16</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K30">
         <v>0.3925233644859813</v>
@@ -5577,7 +5577,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K38">
         <v>0.3414634146341464</v>
@@ -6527,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K57">
         <v>0.2948717948717949</v>
@@ -6577,7 +6577,7 @@
         <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K58">
         <v>0.2947368421052631</v>
@@ -6827,7 +6827,7 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K63">
         <v>0.2857142857142857</v>
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K67">
         <v>0.28125</v>
@@ -7527,7 +7527,7 @@
         <v>10</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K77">
         <v>0.2530864197530864</v>
@@ -7727,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K81">
         <v>0.25</v>
@@ -8077,7 +8077,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K88">
         <v>0.2383177570093458</v>
@@ -8127,7 +8127,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K89">
         <v>0.2373453318335208</v>
@@ -8377,7 +8377,7 @@
         <v>129</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K94">
         <v>0.2337662337662338</v>
@@ -8427,7 +8427,7 @@
         <v>35</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K95">
         <v>0.2333333333333333</v>
@@ -8477,7 +8477,7 @@
         <v>28</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K96">
         <v>0.2325581395348837</v>
@@ -8527,7 +8527,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K97">
         <v>0.2307692307692308</v>
@@ -8827,7 +8827,7 @@
         <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K103">
         <v>0.2305825242718447</v>
@@ -8927,7 +8927,7 @@
         <v>23</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K105">
         <v>0.2280130293159609</v>
@@ -8977,7 +8977,7 @@
         <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K106">
         <v>0.2272727272727273</v>
@@ -9077,7 +9077,7 @@
         <v>8</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K108">
         <v>0.2253521126760563</v>
@@ -9227,7 +9227,7 @@
         <v>16</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K111">
         <v>0.2222222222222222</v>
@@ -9327,7 +9327,7 @@
         <v>8</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K113">
         <v>0.2222222222222222</v>
@@ -9377,7 +9377,7 @@
         <v>17</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K114">
         <v>0.2222222222222222</v>
@@ -9627,7 +9627,7 @@
         <v>9</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K119">
         <v>0.219484882418813</v>
@@ -9659,25 +9659,25 @@
         <v>0.1</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K120">
         <v>0.21875</v>
@@ -9756,13 +9756,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>402</v>
@@ -9806,13 +9806,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.09677419354838709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9824,10 +9824,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K123">
         <v>0.2142857142857143</v>
@@ -9856,25 +9856,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.09219858156028368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>403</v>
@@ -10059,22 +10059,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>407</v>
@@ -10106,13 +10106,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K129">
         <v>0.2134146341463415</v>
@@ -10156,25 +10156,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>408</v>
@@ -10206,13 +10206,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>409</v>
@@ -10309,10 +10309,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>411</v>
@@ -10377,7 +10377,7 @@
         <v>11</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K134">
         <v>0.2064056939501779</v>
@@ -10412,16 +10412,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>11</v>
@@ -10456,28 +10456,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K136">
         <v>0.2021276595744681</v>
@@ -10506,28 +10506,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E137">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F137">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K137">
         <v>0.2015503875968992</v>
@@ -10556,28 +10556,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
       <c r="D138">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K138">
         <v>0.2007797270955166</v>
@@ -10606,28 +10606,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K139">
         <v>0.2</v>
@@ -10659,22 +10659,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>413</v>
@@ -10756,25 +10756,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>415</v>
@@ -10806,13 +10806,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>416</v>
@@ -10856,13 +10856,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>417</v>
@@ -10906,25 +10906,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>418</v>
@@ -10959,10 +10959,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>419</v>
@@ -11009,22 +11009,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>420</v>
@@ -11109,22 +11109,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>422</v>
@@ -11159,22 +11159,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>423</v>
@@ -11206,28 +11206,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K151">
         <v>0.2</v>
@@ -11256,25 +11256,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>424</v>
@@ -11312,16 +11312,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>14</v>
@@ -11406,7 +11406,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11424,10 +11424,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K155">
         <v>0.1994328922495274</v>
@@ -11456,28 +11456,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K156">
         <v>0.1986301369863014</v>
@@ -11506,13 +11506,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -11524,10 +11524,10 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K157">
         <v>0.1981981981981982</v>
@@ -11556,7 +11556,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>426</v>
@@ -11606,13 +11606,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>427</v>
@@ -11656,7 +11656,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>428</v>
@@ -11709,10 +11709,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>429</v>
@@ -11762,16 +11762,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>17</v>
@@ -11806,28 +11806,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K163">
         <v>0.1904761904761905</v>
@@ -11856,25 +11856,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>431</v>
@@ -11906,25 +11906,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>432</v>
@@ -11959,22 +11959,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>433</v>
@@ -12012,16 +12012,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>18</v>
@@ -12059,10 +12059,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E168">
         <v>0.93</v>
@@ -12074,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>435</v>
@@ -12112,16 +12112,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>18</v>
@@ -12156,25 +12156,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>437</v>
@@ -12206,25 +12206,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.05263157894736842</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>438</v>
@@ -12256,13 +12256,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -12274,10 +12274,10 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K172">
         <v>0.1846153846153846</v>
@@ -12306,25 +12306,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05035971223021583</v>
+        <v>0.05</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>439</v>
@@ -12362,22 +12362,22 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>19</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K174">
         <v>0.183206106870229</v>
@@ -12406,25 +12406,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>440</v>
@@ -12456,25 +12456,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>441</v>
@@ -12506,25 +12506,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>442</v>
@@ -12556,7 +12556,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>443</v>
@@ -12606,25 +12606,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>444</v>
@@ -12656,25 +12656,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>445</v>
@@ -12706,28 +12706,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K181">
         <v>0.1818181818181818</v>
@@ -12756,25 +12756,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>446</v>
@@ -12812,16 +12812,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
         <v>22</v>
@@ -12859,22 +12859,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>448</v>
@@ -12906,25 +12906,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>449</v>
@@ -12956,25 +12956,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.04347826086956522</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>450</v>
@@ -13006,25 +13006,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>451</v>
@@ -13056,25 +13056,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04216867469879518</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C188">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>452</v>
@@ -13112,16 +13112,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>23</v>
@@ -13162,13 +13162,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -13177,7 +13177,7 @@
         <v>23</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K190">
         <v>0.1764705882352941</v>
@@ -13206,28 +13206,28 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K191">
         <v>0.1759259259259259</v>
@@ -13256,25 +13256,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>454</v>
@@ -13306,28 +13306,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F193">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K193">
         <v>0.1742424242424243</v>
@@ -13359,22 +13359,22 @@
         <v>0.04</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>455</v>
@@ -13406,25 +13406,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>456</v>
@@ -13456,25 +13456,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F196">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>457</v>
@@ -13506,28 +13506,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K197">
         <v>0.1716417910447761</v>
@@ -13559,25 +13559,25 @@
         <v>0.03846153846153846</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K198">
         <v>0.1707317073170732</v>
@@ -13606,28 +13606,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K199">
         <v>0.1697819314641744</v>
@@ -13656,25 +13656,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>458</v>
@@ -13712,16 +13712,16 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>26</v>
@@ -13756,25 +13756,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>460</v>
@@ -13806,25 +13806,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>461</v>
@@ -13856,25 +13856,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>462</v>
@@ -13906,28 +13906,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K205">
         <v>0.1666666666666667</v>
@@ -13962,16 +13962,16 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>28</v>
@@ -14012,16 +14012,16 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
         <v>28</v>
@@ -14056,25 +14056,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>465</v>
@@ -14106,25 +14106,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>466</v>
@@ -14156,25 +14156,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>467</v>
@@ -14212,16 +14212,16 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>30</v>
@@ -14256,25 +14256,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03225806451612903</v>
+        <v>0.02949061662198391</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>469</v>
@@ -14306,25 +14306,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>470</v>
@@ -14356,25 +14356,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02949061662198391</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C214">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>471</v>
@@ -14406,25 +14406,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02941176470588235</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>472</v>
@@ -14456,25 +14456,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02941176470588235</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>473</v>
@@ -14506,25 +14506,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>474</v>
@@ -14556,25 +14556,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02877697841726619</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C218">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D218">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>475</v>
@@ -14606,25 +14606,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>476</v>
@@ -14656,25 +14656,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02777777777777778</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="C220">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>477</v>
@@ -14706,25 +14706,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02777777777777778</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>478</v>
@@ -14756,25 +14756,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02727272727272727</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D222">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E222">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F222">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>479</v>
@@ -14806,25 +14806,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02727272727272727</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
         <v>3</v>
       </c>
-      <c r="D223">
-        <v>27</v>
-      </c>
       <c r="E223">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>480</v>
@@ -14856,25 +14856,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02723735408560311</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C224">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E224">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F224">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>481</v>
@@ -14912,16 +14912,16 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>36</v>
@@ -14956,25 +14956,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02702702702702703</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>483</v>
@@ -15006,25 +15006,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>484</v>
@@ -15056,25 +15056,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02654867256637168</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>485</v>
@@ -15112,13 +15112,13 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
@@ -15159,22 +15159,22 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>487</v>
@@ -15206,13 +15206,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E231">
         <v>0.67</v>
@@ -15224,7 +15224,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>488</v>
@@ -15256,25 +15256,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>489</v>
@@ -15306,25 +15306,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>490</v>
@@ -15356,28 +15356,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K234">
         <v>0.1653084982537835</v>
@@ -15406,28 +15406,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K235">
         <v>0.1639344262295082</v>
@@ -15456,25 +15456,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>491</v>
@@ -15506,25 +15506,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>492</v>
@@ -15556,28 +15556,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K238">
         <v>0.1623931623931624</v>
@@ -15606,28 +15606,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K239">
         <v>0.1612903225806452</v>
@@ -15656,25 +15656,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>493</v>
@@ -15706,28 +15706,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02298850574712644</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="F241">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K241">
         <v>0.1612903225806452</v>
@@ -15756,25 +15756,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>494</v>
@@ -15806,28 +15806,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K243">
         <v>0.1595092024539877</v>
@@ -15856,28 +15856,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E244">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F244">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K244">
         <v>0.1590909090909091</v>
@@ -15906,25 +15906,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
         <v>8</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>495</v>
@@ -15956,25 +15956,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>496</v>
@@ -16006,25 +16006,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02105263157894737</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>497</v>
@@ -16056,25 +16056,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E248">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>498</v>
@@ -16106,25 +16106,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02083333333333333</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>499</v>
@@ -16156,25 +16156,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>500</v>
@@ -16206,25 +16206,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01904761904761905</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E251">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>501</v>
@@ -16256,25 +16256,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01886792452830189</v>
+        <v>0.01858736059479554</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E252">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F252">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>502</v>
@@ -16306,25 +16306,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>503</v>
@@ -16356,25 +16356,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01858736059479554</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E254">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F254">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>504</v>
@@ -16406,25 +16406,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01851851851851852</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>505</v>
@@ -16456,25 +16456,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>506</v>
@@ -16506,25 +16506,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01840490797546012</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>507</v>
@@ -16556,28 +16556,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K258">
         <v>0.1515151515151515</v>
@@ -16606,25 +16606,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>508</v>
@@ -16656,25 +16656,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F260">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>509</v>
@@ -16706,25 +16706,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>510</v>
@@ -16756,7 +16756,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>511</v>
@@ -16806,28 +16806,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K263">
         <v>0.1458333333333333</v>
@@ -16856,28 +16856,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F264">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K264">
         <v>0.1458333333333333</v>
@@ -16909,22 +16909,22 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E265">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F265">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>512</v>
@@ -16956,28 +16956,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01666666666666667</v>
+        <v>0.01568855316676351</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D266">
-        <v>7</v>
+        <v>449</v>
       </c>
       <c r="E266">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F266">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>59</v>
+        <v>1694</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K266">
         <v>0.1451612903225807</v>
@@ -17006,25 +17006,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01666666666666667</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F267">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>513</v>
@@ -17056,28 +17056,28 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01568855316676351</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C268">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>449</v>
+        <v>10</v>
       </c>
       <c r="E268">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F268">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>1694</v>
+        <v>128</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K268">
         <v>0.1428571428571428</v>
@@ -17106,25 +17106,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01538461538461539</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E269">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F269">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>514</v>
@@ -17156,25 +17156,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01538461538461539</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E270">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>515</v>
@@ -17206,13 +17206,13 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01515151515151515</v>
+        <v>0.01478743068391867</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D271">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E271">
         <v>0.93</v>
@@ -17224,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>65</v>
+        <v>533</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>516</v>
@@ -17256,25 +17256,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01507537688442211</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>517</v>
@@ -17306,25 +17306,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01478743068391867</v>
+        <v>0.01393728222996516</v>
       </c>
       <c r="C273">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D273">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="F273">
-        <v>0.06999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>533</v>
+        <v>283</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>518</v>
@@ -17356,25 +17356,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01408450704225352</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F274">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>519</v>
@@ -17406,25 +17406,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01393728222996516</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E275">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="F275">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>520</v>
@@ -17456,25 +17456,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0136986301369863</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E276">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F276">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>521</v>
@@ -17506,25 +17506,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01351351351351351</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D277">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E277">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F277">
-        <v>0.17</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>73</v>
+        <v>906</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>522</v>
@@ -17556,25 +17556,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01324503311258278</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E278">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F278">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>523</v>
@@ -17606,25 +17606,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.0130718954248366</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
         <v>12</v>
       </c>
-      <c r="D279">
-        <v>62</v>
-      </c>
       <c r="E279">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="F279">
-        <v>0.1899999999999999</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>906</v>
+        <v>77</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>524</v>
@@ -17656,25 +17656,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01290322580645161</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E280">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F280">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>525</v>
@@ -17706,25 +17706,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01282051282051282</v>
+        <v>0.01246105919003115</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D281">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E281">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>526</v>
@@ -17756,25 +17756,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E282">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F282">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>527</v>
@@ -17806,25 +17806,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01246105919003115</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C283">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D283">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E283">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F283">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>528</v>
@@ -17856,25 +17856,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0119047619047619</v>
+        <v>0.01165126556850141</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D284">
-        <v>217</v>
+        <v>647</v>
       </c>
       <c r="E284">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F284">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>166</v>
+        <v>2460</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>529</v>
@@ -17906,25 +17906,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01176470588235294</v>
+        <v>0.01134751773049645</v>
       </c>
       <c r="C285">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D285">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="E285">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="F285">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>504</v>
+        <v>697</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>530</v>
@@ -17956,25 +17956,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01165126556850141</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C286">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>647</v>
+        <v>71</v>
       </c>
       <c r="E286">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F286">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>2460</v>
+        <v>88</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>531</v>
@@ -18006,25 +18006,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01134751773049645</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
         <v>8</v>
       </c>
-      <c r="D287">
-        <v>204</v>
-      </c>
       <c r="E287">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F287">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>697</v>
+        <v>88</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>532</v>
@@ -18056,25 +18056,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E288">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F288">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>533</v>
@@ -18106,25 +18106,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E289">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F289">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>534</v>
@@ -18162,13 +18162,13 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E290">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F290">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
@@ -18206,25 +18206,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01111111111111111</v>
+        <v>0.01108647450110865</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D291">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="E291">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F291">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>89</v>
+        <v>446</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>536</v>
@@ -18256,25 +18256,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01111111111111111</v>
+        <v>0.01103448275862069</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D292">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="E292">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F292">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>89</v>
+        <v>717</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>537</v>
@@ -18306,25 +18306,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01108647450110865</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E293">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F293">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>446</v>
+        <v>93</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>538</v>
@@ -18356,25 +18356,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01103448275862069</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C294">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F294">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>717</v>
+        <v>98</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>539</v>
@@ -18406,25 +18406,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01063829787234043</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E295">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F295">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>540</v>
@@ -18456,25 +18456,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.0101010101010101</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>541</v>
@@ -18506,25 +18506,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.00909090909090909</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D297">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E297">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F297">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>109</v>
+        <v>1035</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>542</v>
@@ -18556,28 +18556,28 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.008928571428571428</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D298">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E298">
-        <v>0.9399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="F298">
-        <v>0.06000000000000005</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K298">
         <v>0.14</v>
@@ -18606,25 +18606,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.008620689655172414</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C299">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="E299">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>1035</v>
+        <v>117</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>543</v>
@@ -18656,25 +18656,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.008510638297872341</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E300">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="F300">
-        <v>0.6699999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>544</v>
@@ -18706,25 +18706,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E301">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F301">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>545</v>
@@ -18756,28 +18756,28 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.008403361344537815</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E302">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F302">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K302">
         <v>0.1370967741935484</v>
@@ -18806,25 +18806,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.00819672131147541</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E303">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F303">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>546</v>
@@ -18856,25 +18856,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.008130081300813009</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E304">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F304">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>547</v>
@@ -18906,25 +18906,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.008130081300813009</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E305">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F305">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>548</v>
@@ -18956,28 +18956,28 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.007692307692307693</v>
+        <v>0.007320644216691069</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D306">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="E306">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F306">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>129</v>
+        <v>678</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K306">
         <v>0.1346153846153846</v>
@@ -19006,25 +19006,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.007633587786259542</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E307">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F307">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>549</v>
@@ -19056,25 +19056,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.007320644216691069</v>
+        <v>0.006844380403458214</v>
       </c>
       <c r="C308">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D308">
-        <v>216</v>
+        <v>444</v>
       </c>
       <c r="E308">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F308">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>678</v>
+        <v>2757</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>550</v>
@@ -19106,28 +19106,28 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.007246376811594203</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E309">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F309">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K309">
         <v>0.133563796354494</v>
@@ -19156,25 +19156,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.006844380403458214</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="C310">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="E310">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F310">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>2757</v>
+        <v>178</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>551</v>
@@ -19206,25 +19206,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.006097560975609756</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E311">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F311">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>552</v>
@@ -19256,25 +19256,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.00558659217877095</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E312">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F312">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>553</v>
@@ -19306,25 +19306,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.005405405405405406</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E313">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F313">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>554</v>
@@ -19356,25 +19356,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.004975124378109453</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E314">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F314">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>555</v>
@@ -19406,25 +19406,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.004878048780487805</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E315">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F315">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>556</v>
@@ -19456,25 +19456,25 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.004672897196261682</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E316">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F316">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>557</v>
@@ -19506,28 +19506,28 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.004201680672268907</v>
+        <v>0.002985074626865672</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E317">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F317">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K317">
         <v>0.1328125</v>
@@ -19552,32 +19552,8 @@
       </c>
     </row>
     <row r="318" spans="1:17">
-      <c r="A318" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B318">
-        <v>0.003636363636363636</v>
-      </c>
-      <c r="C318">
-        <v>1</v>
-      </c>
-      <c r="D318">
-        <v>15</v>
-      </c>
-      <c r="E318">
-        <v>0.93</v>
-      </c>
-      <c r="F318">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G318" t="b">
-        <v>1</v>
-      </c>
-      <c r="H318">
-        <v>274</v>
-      </c>
       <c r="J318" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K318">
         <v>0.1323529411764706</v>
@@ -19602,32 +19578,8 @@
       </c>
     </row>
     <row r="319" spans="1:17">
-      <c r="A319" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B319">
-        <v>0.002985074626865672</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>26</v>
-      </c>
-      <c r="E319">
-        <v>0.96</v>
-      </c>
-      <c r="F319">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G319" t="b">
-        <v>1</v>
-      </c>
-      <c r="H319">
-        <v>334</v>
-      </c>
       <c r="J319" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K319">
         <v>0.131578947368421</v>
@@ -19653,7 +19605,7 @@
     </row>
     <row r="320" spans="1:17">
       <c r="J320" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K320">
         <v>0.1308411214953271</v>
@@ -19731,7 +19683,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K323">
         <v>0.1296296296296296</v>
@@ -19809,7 +19761,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K326">
         <v>0.1276595744680851</v>
@@ -19835,7 +19787,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K327">
         <v>0.1254480286738351</v>
@@ -20043,7 +19995,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K335">
         <v>0.125</v>
@@ -21057,7 +21009,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K374">
         <v>0.1219512195121951</v>
@@ -21109,7 +21061,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K376">
         <v>0.1214953271028037</v>
@@ -21187,7 +21139,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K379">
         <v>0.12</v>
@@ -21811,7 +21763,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K403">
         <v>0.1111111111111111</v>
@@ -21889,7 +21841,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K406">
         <v>0.1111111111111111</v>
@@ -22799,7 +22751,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K441">
         <v>0.1071428571428571</v>
@@ -23267,7 +23219,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K459">
         <v>0.1015625</v>
@@ -23319,7 +23271,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K461">
         <v>0.101010101010101</v>
@@ -23397,7 +23349,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K464">
         <v>0.1</v>
@@ -23995,7 +23947,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K487">
         <v>0.1</v>
@@ -24255,7 +24207,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K497">
         <v>0.09734513274336283</v>
@@ -24333,7 +24285,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K500">
         <v>0.09677419354838709</v>
@@ -24541,7 +24493,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K508">
         <v>0.09278350515463918</v>
@@ -24567,7 +24519,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K509">
         <v>0.09230769230769231</v>
@@ -24593,7 +24545,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K510">
         <v>0.09146341463414634</v>
@@ -24879,7 +24831,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K521">
         <v>0.09090909090909091</v>
@@ -24931,7 +24883,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K523">
         <v>0.09090909090909091</v>
@@ -25893,7 +25845,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K560">
         <v>0.08695652173913043</v>
@@ -26517,7 +26469,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K584">
         <v>0.08235294117647059</v>
@@ -26621,7 +26573,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K588">
         <v>0.08064516129032258</v>
@@ -26829,7 +26781,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K596">
         <v>0.07936507936507936</v>
@@ -27557,7 +27509,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K624">
         <v>0.075</v>
@@ -27687,7 +27639,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K629">
         <v>0.07368421052631578</v>
@@ -27791,7 +27743,7 @@
     </row>
     <row r="633" spans="10:17">
       <c r="J633" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K633">
         <v>0.07246376811594203</v>
@@ -27999,7 +27951,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K641">
         <v>0.07142857142857142</v>
@@ -28129,7 +28081,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K646">
         <v>0.07142857142857142</v>
@@ -28311,7 +28263,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K653">
         <v>0.07142857142857142</v>
@@ -28623,7 +28575,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K665">
         <v>0.07086614173228346</v>
@@ -28701,7 +28653,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K668">
         <v>0.06986899563318777</v>
@@ -28779,7 +28731,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K671">
         <v>0.06976744186046512</v>
@@ -28831,7 +28783,7 @@
     </row>
     <row r="673" spans="10:17">
       <c r="J673" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K673">
         <v>0.06963788300835655</v>
@@ -28883,7 +28835,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K675">
         <v>0.06896551724137931</v>
@@ -29195,7 +29147,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K687">
         <v>0.06666666666666667</v>
@@ -29247,7 +29199,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K689">
         <v>0.06666666666666667</v>
@@ -29481,7 +29433,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K698">
         <v>0.06666666666666667</v>
@@ -29767,7 +29719,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K709">
         <v>0.06493506493506493</v>
@@ -29949,7 +29901,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K716">
         <v>0.0641025641025641</v>
@@ -30001,7 +29953,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K718">
         <v>0.06382978723404255</v>
@@ -30131,7 +30083,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K723">
         <v>0.0625</v>
@@ -30547,7 +30499,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K739">
         <v>0.06060606060606061</v>
@@ -30703,7 +30655,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K745">
         <v>0.05882352941176471</v>
@@ -31041,7 +30993,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K758">
         <v>0.05714285714285714</v>
@@ -31405,7 +31357,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K772">
         <v>0.05405405405405406</v>
@@ -31509,7 +31461,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K776">
         <v>0.05263157894736842</v>
@@ -31535,7 +31487,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K777">
         <v>0.05263157894736842</v>
@@ -31821,7 +31773,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K788">
         <v>0.05230125523012552</v>
@@ -31899,7 +31851,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K791">
         <v>0.05128205128205128</v>
@@ -32133,7 +32085,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K800">
         <v>0.05</v>
@@ -32471,7 +32423,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K813">
         <v>0.04861111111111111</v>
@@ -32601,7 +32553,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K818">
         <v>0.04761904761904762</v>
@@ -33355,7 +33307,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K847">
         <v>0.04347826086956522</v>
@@ -33667,7 +33619,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K859">
         <v>0.04166666666666666</v>
@@ -33693,7 +33645,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K860">
         <v>0.04166666666666666</v>
@@ -33797,7 +33749,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K864">
         <v>0.04081632653061224</v>
@@ -34083,7 +34035,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K875">
         <v>0.03783783783783784</v>
@@ -34395,7 +34347,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K887">
         <v>0.03571428571428571</v>
@@ -35539,7 +35491,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K931">
         <v>0.025</v>
@@ -35617,7 +35569,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K934">
         <v>0.024</v>
@@ -35799,7 +35751,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K941">
         <v>0.02127659574468085</v>
@@ -35851,7 +35803,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K943">
         <v>0.02076124567474048</v>
@@ -35903,7 +35855,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K945">
         <v>0.02040816326530612</v>
@@ -35929,7 +35881,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K946">
         <v>0.02</v>
@@ -36215,7 +36167,7 @@
     </row>
     <row r="957" spans="10:17">
       <c r="J957" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K957">
         <v>0.004273504273504274</v>
